--- a/src/test/java/com/Resources/ExportEngineInput.xlsx
+++ b/src/test/java/com/Resources/ExportEngineInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\DailyCheneyOGExportEngine-main\DailyCheneyOGExportEngine-main\src\test\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8573F16-B2C0-48EC-8358-9DFC9E354C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8CFA95-D06F-4D98-866B-9AFA64F563C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -181,19 +181,19 @@
     <t>Davids NK Master List</t>
   </si>
   <si>
-    <t>Gumbys_Cheney</t>
-  </si>
-  <si>
     <t>CHENEY</t>
   </si>
   <si>
-    <t>Gumby's Pizza</t>
-  </si>
-  <si>
-    <t>039804-01CBI</t>
-  </si>
-  <si>
-    <t>GMB9804</t>
+    <t>DADA_Cheney</t>
+  </si>
+  <si>
+    <t>DADA Restaurant</t>
+  </si>
+  <si>
+    <t>025991-00CBI</t>
+  </si>
+  <si>
+    <t>Diningedge2022</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,23 +861,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/src/test/java/com/Resources/ExportEngineInput.xlsx
+++ b/src/test/java/com/Resources/ExportEngineInput.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edge\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyti Singh\Desktop\Testing\DailyCheneyOGExportEngine-main\DailyCheneyOGExportEngine-main\src\test\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F028290-151A-4C9D-BDEE-F2B432297F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="14976" windowHeight="5520"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheney" sheetId="1" r:id="rId1"/>
@@ -2892,9 +2893,6 @@
     <t>Elephant324</t>
   </si>
   <si>
-    <t>GMB9804</t>
-  </si>
-  <si>
     <t>Ethos Greek Bistro</t>
   </si>
   <si>
@@ -4549,12 +4547,15 @@
   </si>
   <si>
     <t>025991-00CBI</t>
+  </si>
+  <si>
+    <t>Gumbys2028!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5041,9 +5042,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5134,6 +5135,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5169,6 +5187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5344,12 +5379,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5402,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -5425,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -5434,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -5448,7 +5483,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -5471,7 +5506,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -5494,7 +5529,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -5503,7 +5538,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>951</v>
+        <v>1503</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -5517,7 +5552,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
@@ -5540,7 +5575,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>26</v>
@@ -5563,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -5586,7 +5621,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -5609,7 +5644,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -5632,7 +5667,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>42</v>
@@ -5655,7 +5690,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -5678,7 +5713,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>750</v>
@@ -5701,7 +5736,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>68</v>
@@ -5724,7 +5759,7 @@
         <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>72</v>
@@ -5747,7 +5782,7 @@
         <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>119</v>
@@ -5756,7 +5791,7 @@
         <v>120</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5770,7 +5805,7 @@
         <v>282</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>119</v>
@@ -5793,7 +5828,7 @@
         <v>123</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>124</v>
@@ -5802,7 +5837,7 @@
         <v>125</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5816,7 +5851,7 @@
         <v>281</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>124</v>
@@ -5839,7 +5874,7 @@
         <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>128</v>
@@ -5862,7 +5897,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>56</v>
@@ -5885,7 +5920,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>58</v>
@@ -5908,7 +5943,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>60</v>
@@ -5931,7 +5966,7 @@
         <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>75</v>
@@ -5954,7 +5989,7 @@
         <v>131</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>132</v>
@@ -5977,7 +6012,7 @@
         <v>203</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>206</v>
@@ -5986,7 +6021,7 @@
         <v>204</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -6000,7 +6035,7 @@
         <v>283</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>206</v>
@@ -6023,7 +6058,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>158</v>
@@ -6046,7 +6081,7 @@
         <v>351</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>336</v>
@@ -6069,7 +6104,7 @@
         <v>353</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>346</v>
@@ -6092,7 +6127,7 @@
         <v>363</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>359</v>
@@ -6115,7 +6150,7 @@
         <v>366</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>367</v>
@@ -6138,7 +6173,7 @@
         <v>382</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>370</v>
@@ -6161,7 +6196,7 @@
         <v>385</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>386</v>
@@ -6184,7 +6219,7 @@
         <v>393</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>394</v>
@@ -6207,7 +6242,7 @@
         <v>396</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>397</v>
@@ -6230,7 +6265,7 @@
         <v>516</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>495</v>
@@ -6253,7 +6288,7 @@
         <v>519</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>504</v>
@@ -6276,7 +6311,7 @@
         <v>712</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>431</v>
@@ -6299,7 +6334,7 @@
         <v>732</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>592</v>
@@ -6322,7 +6357,7 @@
         <v>888</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>889</v>
@@ -6331,7 +6366,7 @@
         <v>890</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -6345,7 +6380,7 @@
         <v>912</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>913</v>
@@ -6365,19 +6400,19 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>427</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>1323</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -6388,19 +6423,19 @@
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>1372</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -6411,19 +6446,19 @@
         <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>1401</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>1402</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -6434,19 +6469,19 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>1431</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>1432</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -6457,19 +6492,19 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>1500</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -6480,28 +6515,28 @@
         <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>1503</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I40"/>
+  <autoFilter ref="A1:I40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6511,7 +6546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6569,22 +6604,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>1009</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>1010</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>1011</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -6595,19 +6630,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>1013</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>1014</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>1015</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>274</v>
@@ -6621,7 +6656,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>140</v>
@@ -6630,13 +6665,13 @@
         <v>427</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>428</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H4" s="51">
         <v>584003</v>
@@ -6649,7 +6684,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>146</v>
@@ -6658,13 +6693,13 @@
         <v>922</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>924</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
@@ -6675,7 +6710,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>146</v>
@@ -6684,7 +6719,7 @@
         <v>927</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>940</v>
@@ -6701,7 +6736,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>146</v>
@@ -6710,13 +6745,13 @@
         <v>918</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>1025</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>1026</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>1027</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
@@ -6727,22 +6762,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>1029</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>1030</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>1031</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>1032</v>
       </c>
       <c r="H8" s="51">
         <v>325457</v>
@@ -6755,7 +6790,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>184</v>
@@ -6764,13 +6799,13 @@
         <v>357</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>1035</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>1036</v>
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -6781,7 +6816,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>184</v>
@@ -6790,13 +6825,13 @@
         <v>191</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>1039</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>1040</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
@@ -6807,7 +6842,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>151</v>
@@ -6816,11 +6851,11 @@
         <v>46</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
@@ -6831,7 +6866,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>146</v>
@@ -6840,13 +6875,13 @@
         <v>709</v>
       </c>
       <c r="E12" s="19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>1045</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>1046</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>1047</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
@@ -6857,22 +6892,22 @@
         <v>14</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>1049</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>1051</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>1052</v>
       </c>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
@@ -6883,7 +6918,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>140</v>
@@ -6892,13 +6927,13 @@
         <v>350</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>1054</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G14" s="19" t="s">
         <v>1055</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>1056</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -6909,7 +6944,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>217</v>
@@ -6918,13 +6953,13 @@
         <v>158</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>1058</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>1059</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>1060</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
@@ -6935,7 +6970,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>140</v>
@@ -6944,13 +6979,13 @@
         <v>270</v>
       </c>
       <c r="E16" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>1062</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>1063</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>1064</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -6961,7 +6996,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>140</v>
@@ -6970,13 +7005,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>1066</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>1067</v>
-      </c>
       <c r="G17" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
@@ -6987,7 +7022,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>140</v>
@@ -6996,13 +7031,13 @@
         <v>98</v>
       </c>
       <c r="E18" s="19" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>1069</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>1070</v>
-      </c>
       <c r="G18" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
@@ -7013,7 +7048,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>140</v>
@@ -7022,13 +7057,13 @@
         <v>95</v>
       </c>
       <c r="E19" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>1072</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>1073</v>
-      </c>
       <c r="G19" s="19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
@@ -7039,7 +7074,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>184</v>
@@ -7048,13 +7083,13 @@
         <v>492</v>
       </c>
       <c r="E20" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="G20" s="19" t="s">
         <v>1076</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>1077</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
@@ -7065,7 +7100,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>140</v>
@@ -7074,13 +7109,13 @@
         <v>785</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>1079</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="G21" s="19" t="s">
         <v>1080</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>1081</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
@@ -7091,19 +7126,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>1083</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>1084</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>1085</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>375</v>
@@ -7117,7 +7152,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>140</v>
@@ -7126,13 +7161,13 @@
         <v>88</v>
       </c>
       <c r="E23" s="19" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="G23" s="19" t="s">
         <v>1088</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>1089</v>
       </c>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
@@ -7143,22 +7178,22 @@
         <v>14</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="G24" s="19" t="s">
         <v>1092</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>1093</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
@@ -7169,7 +7204,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>146</v>
@@ -7178,13 +7213,13 @@
         <v>716</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>1095</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="G25" s="19" t="s">
         <v>1096</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>1097</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -7195,22 +7230,22 @@
         <v>14</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>1099</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="F26" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="G26" s="19" t="s">
         <v>1101</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>1102</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
@@ -7221,7 +7256,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>217</v>
@@ -7230,13 +7265,13 @@
         <v>830</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>113</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
@@ -7247,7 +7282,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>146</v>
@@ -7256,13 +7291,13 @@
         <v>861</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>1107</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="G28" s="19" t="s">
         <v>1108</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>1109</v>
       </c>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
@@ -7273,7 +7308,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>146</v>
@@ -7282,13 +7317,13 @@
         <v>753</v>
       </c>
       <c r="E29" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>1111</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="G29" s="19" t="s">
         <v>1112</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1113</v>
       </c>
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
@@ -7299,7 +7334,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>146</v>
@@ -7308,13 +7343,13 @@
         <v>889</v>
       </c>
       <c r="E30" s="19" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>1115</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="G30" s="19" t="s">
         <v>1116</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>1117</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -7325,22 +7360,22 @@
         <v>14</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>1119</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="19" t="s">
         <v>1120</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="G31" s="19" t="s">
         <v>1121</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>1122</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -7351,7 +7386,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>146</v>
@@ -7360,16 +7395,16 @@
         <v>892</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>894</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
@@ -7379,22 +7414,22 @@
         <v>14</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E33" s="19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>1127</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="G33" s="19" t="s">
         <v>1128</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>1129</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
@@ -7405,22 +7440,22 @@
         <v>14</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>1131</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>1132</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="G34" s="19" t="s">
         <v>1133</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>1134</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
@@ -7431,7 +7466,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>146</v>
@@ -7440,13 +7475,13 @@
         <v>693</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>570</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
@@ -7457,7 +7492,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>184</v>
@@ -7466,13 +7501,13 @@
         <v>547</v>
       </c>
       <c r="E36" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F36" s="19" t="s">
         <v>1139</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="G36" s="19" t="s">
         <v>1140</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>1141</v>
       </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
@@ -7483,22 +7518,22 @@
         <v>14</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>1143</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="19" t="s">
         <v>1144</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="G37" s="19" t="s">
         <v>1145</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>1146</v>
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
@@ -7509,22 +7544,22 @@
         <v>14</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>1147</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="F38" s="19" t="s">
         <v>1148</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="G38" s="19" t="s">
         <v>1149</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>1150</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
@@ -7535,22 +7570,22 @@
         <v>14</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D39" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>1152</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="F39" s="19" t="s">
         <v>1153</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="G39" s="19" t="s">
         <v>1154</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>1155</v>
       </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
@@ -7561,7 +7596,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>146</v>
@@ -7570,13 +7605,13 @@
         <v>740</v>
       </c>
       <c r="E40" s="19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>1157</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="G40" s="19" t="s">
         <v>1158</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>1159</v>
       </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
@@ -7587,7 +7622,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>184</v>
@@ -7602,7 +7637,7 @@
         <v>633</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
@@ -7613,22 +7648,22 @@
         <v>14</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D42" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>1163</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>1164</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>1165</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>1166</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
@@ -7639,22 +7674,22 @@
         <v>14</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>1168</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>1169</v>
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
@@ -7665,22 +7700,22 @@
         <v>14</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D44" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>1171</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="19" t="s">
         <v>1172</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="G44" s="19" t="s">
         <v>1173</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>1174</v>
       </c>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
@@ -7691,7 +7726,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>184</v>
@@ -7700,13 +7735,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>924</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
@@ -7717,22 +7752,22 @@
         <v>14</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E46" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F46" s="19" t="s">
         <v>1178</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="G46" s="19" t="s">
         <v>1179</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>1180</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -7743,7 +7778,7 @@
         <v>14</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>146</v>
@@ -7752,13 +7787,13 @@
         <v>801</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>113</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
@@ -7769,22 +7804,22 @@
         <v>14</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D48" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>1185</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="F48" s="19" t="s">
         <v>1186</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="G48" s="19" t="s">
         <v>1187</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>1188</v>
       </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
@@ -7795,22 +7830,22 @@
         <v>14</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D49" s="19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>1190</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="F49" s="19" t="s">
         <v>1191</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="G49" s="19" t="s">
         <v>1192</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>1193</v>
       </c>
       <c r="H49" s="51">
         <v>649743</v>
@@ -7823,7 +7858,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>184</v>
@@ -7832,13 +7867,13 @@
         <v>745</v>
       </c>
       <c r="E50" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>1195</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="G50" s="19" t="s">
         <v>1196</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>1197</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
@@ -7849,22 +7884,22 @@
         <v>14</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D51" s="19" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>1199</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="F51" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="G51" s="19" t="s">
         <v>1201</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>1202</v>
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
@@ -7875,7 +7910,7 @@
         <v>14</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>184</v>
@@ -7884,13 +7919,13 @@
         <v>913</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>915</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
@@ -7901,22 +7936,22 @@
         <v>14</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D53" s="19" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>1207</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="F53" s="19" t="s">
         <v>1208</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="G53" s="19" t="s">
         <v>1209</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>1210</v>
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
@@ -7927,22 +7962,22 @@
         <v>14</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D54" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>1212</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="F54" s="19" t="s">
         <v>1213</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="G54" s="19" t="s">
         <v>1214</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>1215</v>
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
@@ -7953,7 +7988,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>184</v>
@@ -7962,7 +7997,7 @@
         <v>408</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>490</v>
@@ -7971,7 +8006,7 @@
         <v>274</v>
       </c>
       <c r="H55" s="51" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I55" s="51"/>
       <c r="J55" s="51"/>
@@ -7981,7 +8016,7 @@
         <v>14</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>184</v>
@@ -7990,13 +8025,13 @@
         <v>495</v>
       </c>
       <c r="E56" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>1220</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="G56" s="19" t="s">
         <v>1221</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>1222</v>
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
@@ -8007,22 +8042,22 @@
         <v>14</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E57" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>1224</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="G57" s="19" t="s">
         <v>1225</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>1226</v>
       </c>
       <c r="H57" s="51"/>
       <c r="I57" s="51"/>
@@ -8033,7 +8068,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>184</v>
@@ -8042,13 +8077,13 @@
         <v>390</v>
       </c>
       <c r="E58" s="19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F58" s="19" t="s">
         <v>1228</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="G58" s="19" t="s">
         <v>1229</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>1230</v>
       </c>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
@@ -8059,7 +8094,7 @@
         <v>14</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>217</v>
@@ -8068,16 +8103,16 @@
         <v>22</v>
       </c>
       <c r="E59" s="19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>1232</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="G59" s="19" t="s">
         <v>1233</v>
       </c>
-      <c r="G59" s="19" t="s">
-        <v>1234</v>
-      </c>
       <c r="H59" s="51" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I59" s="51"/>
       <c r="J59" s="51"/>
@@ -8087,7 +8122,7 @@
         <v>14</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>146</v>
@@ -8096,13 +8131,13 @@
         <v>881</v>
       </c>
       <c r="E60" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F60" s="19" t="s">
         <v>1236</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="G60" s="19" t="s">
         <v>1237</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>1238</v>
       </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
@@ -8113,7 +8148,7 @@
         <v>14</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>184</v>
@@ -8122,13 +8157,13 @@
         <v>668</v>
       </c>
       <c r="E61" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F61" s="19" t="s">
         <v>1240</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="G61" s="19" t="s">
         <v>1241</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>1242</v>
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
@@ -8139,22 +8174,22 @@
         <v>14</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D62" s="19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>1244</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="F62" s="19" t="s">
         <v>1245</v>
       </c>
-      <c r="F62" s="19" t="s">
+      <c r="G62" s="19" t="s">
         <v>1246</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>1247</v>
       </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
@@ -8165,22 +8200,22 @@
         <v>14</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D63" s="19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>1249</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="19" t="s">
         <v>1250</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="G63" s="19" t="s">
         <v>1251</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>1252</v>
       </c>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
@@ -8188,7 +8223,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A63" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8197,7 +8232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -8214,39 +8249,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1" t="s">
         <v>146</v>
       </c>
       <c r="C1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1" t="s">
         <v>1008</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1009</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1010</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B2" t="s">
         <v>184</v>
       </c>
       <c r="C2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D2" t="s">
         <v>1013</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1014</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1015</v>
       </c>
       <c r="F2" t="s">
         <v>274</v>
@@ -8254,7 +8289,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B3" t="s">
         <v>140</v>
@@ -8263,13 +8298,13 @@
         <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E3" t="s">
         <v>428</v>
       </c>
       <c r="F3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G3" s="48">
         <v>584003</v>
@@ -8277,7 +8312,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
@@ -8286,18 +8321,18 @@
         <v>922</v>
       </c>
       <c r="D4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E4" t="s">
         <v>924</v>
       </c>
       <c r="F4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B5" t="s">
         <v>146</v>
@@ -8306,7 +8341,7 @@
         <v>927</v>
       </c>
       <c r="D5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E5" t="s">
         <v>940</v>
@@ -8317,7 +8352,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
@@ -8326,33 +8361,33 @@
         <v>918</v>
       </c>
       <c r="D6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E6" t="s">
         <v>1025</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1026</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B7" t="s">
         <v>146</v>
       </c>
       <c r="C7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D7" t="s">
         <v>1029</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1030</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1031</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1032</v>
       </c>
       <c r="G7" s="48">
         <v>325457</v>
@@ -8360,7 +8395,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B8" t="s">
         <v>184</v>
@@ -8369,18 +8404,18 @@
         <v>357</v>
       </c>
       <c r="D8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E8" t="s">
         <v>1034</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1035</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B9" t="s">
         <v>184</v>
@@ -8389,18 +8424,18 @@
         <v>191</v>
       </c>
       <c r="D9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E9" t="s">
         <v>1038</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1039</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B10" t="s">
         <v>151</v>
@@ -8409,15 +8444,15 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F10" t="s">
         <v>1042</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B11" t="s">
         <v>146</v>
@@ -8426,38 +8461,38 @@
         <v>709</v>
       </c>
       <c r="D11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E11" t="s">
         <v>1045</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1046</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B12" t="s">
         <v>146</v>
       </c>
       <c r="C12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D12" t="s">
         <v>1049</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1050</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>1051</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
@@ -8466,18 +8501,18 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E13" t="s">
         <v>1054</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1055</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B14" t="s">
         <v>217</v>
@@ -8486,18 +8521,18 @@
         <v>158</v>
       </c>
       <c r="D14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E14" t="s">
         <v>1058</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>1059</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B15" t="s">
         <v>140</v>
@@ -8506,18 +8541,18 @@
         <v>270</v>
       </c>
       <c r="D15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E15" t="s">
         <v>1062</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>1063</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
@@ -8526,18 +8561,18 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E16" t="s">
         <v>1066</v>
       </c>
-      <c r="E16" t="s">
-        <v>1067</v>
-      </c>
       <c r="F16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
@@ -8546,18 +8581,18 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E17" t="s">
         <v>1069</v>
       </c>
-      <c r="E17" t="s">
-        <v>1070</v>
-      </c>
       <c r="F17" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B18" t="s">
         <v>140</v>
@@ -8566,18 +8601,18 @@
         <v>95</v>
       </c>
       <c r="D18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E18" t="s">
         <v>1072</v>
       </c>
-      <c r="E18" t="s">
-        <v>1073</v>
-      </c>
       <c r="F18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B19" t="s">
         <v>184</v>
@@ -8586,18 +8621,18 @@
         <v>492</v>
       </c>
       <c r="D19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E19" t="s">
         <v>1075</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>1076</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B20" t="s">
         <v>140</v>
@@ -8606,30 +8641,30 @@
         <v>785</v>
       </c>
       <c r="D20" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E20" t="s">
         <v>1079</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>1080</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B21" t="s">
         <v>146</v>
       </c>
       <c r="C21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D21" t="s">
         <v>1083</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>1084</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1085</v>
       </c>
       <c r="F21" t="s">
         <v>375</v>
@@ -8637,7 +8672,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B22" t="s">
         <v>140</v>
@@ -8646,38 +8681,38 @@
         <v>88</v>
       </c>
       <c r="D22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E22" t="s">
         <v>1087</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>1088</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B23" t="s">
         <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E23" t="s">
         <v>1091</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>1092</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B24" t="s">
         <v>146</v>
@@ -8686,38 +8721,38 @@
         <v>716</v>
       </c>
       <c r="D24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E24" t="s">
         <v>1095</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>1096</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B25" t="s">
         <v>146</v>
       </c>
       <c r="C25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D25" t="s">
         <v>1099</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>1100</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>1101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B26" t="s">
         <v>217</v>
@@ -8726,18 +8761,18 @@
         <v>830</v>
       </c>
       <c r="D26" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E26" t="s">
         <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B27" t="s">
         <v>146</v>
@@ -8746,18 +8781,18 @@
         <v>861</v>
       </c>
       <c r="D27" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E27" t="s">
         <v>1107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>1108</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B28" t="s">
         <v>146</v>
@@ -8766,18 +8801,18 @@
         <v>753</v>
       </c>
       <c r="D28" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E28" t="s">
         <v>1111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>1112</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B29" t="s">
         <v>146</v>
@@ -8786,38 +8821,38 @@
         <v>889</v>
       </c>
       <c r="D29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E29" t="s">
         <v>1115</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>1116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B30" t="s">
         <v>146</v>
       </c>
       <c r="C30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D30" t="s">
         <v>1119</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>1120</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>1121</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B31" t="s">
         <v>146</v>
@@ -8826,61 +8861,61 @@
         <v>892</v>
       </c>
       <c r="D31" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E31" t="s">
         <v>894</v>
       </c>
       <c r="F31" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B32" t="s">
         <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E32" t="s">
         <v>1127</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>1128</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B33" t="s">
         <v>146</v>
       </c>
       <c r="C33" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D33" t="s">
         <v>1131</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>1132</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>1133</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B34" t="s">
         <v>146</v>
@@ -8889,18 +8924,18 @@
         <v>693</v>
       </c>
       <c r="D34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E34" t="s">
         <v>570</v>
       </c>
       <c r="F34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B35" t="s">
         <v>184</v>
@@ -8909,78 +8944,78 @@
         <v>547</v>
       </c>
       <c r="D35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E35" t="s">
         <v>1139</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>1140</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B36" t="s">
         <v>146</v>
       </c>
       <c r="C36" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D36" t="s">
         <v>1143</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>1144</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>1145</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B37" t="s">
         <v>217</v>
       </c>
       <c r="C37" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D37" t="s">
         <v>1147</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>1148</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>1149</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B38" t="s">
         <v>146</v>
       </c>
       <c r="C38" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D38" t="s">
         <v>1152</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1153</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>1154</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B39" t="s">
         <v>146</v>
@@ -8989,18 +9024,18 @@
         <v>740</v>
       </c>
       <c r="D39" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E39" t="s">
         <v>1157</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>1158</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B40" t="s">
         <v>184</v>
@@ -9015,72 +9050,72 @@
         <v>633</v>
       </c>
       <c r="F40" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B41" t="s">
         <v>140</v>
       </c>
       <c r="C41" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D41" t="s">
         <v>1163</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>1164</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>1165</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B42" t="s">
         <v>140</v>
       </c>
       <c r="C42" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F42" t="s">
         <v>1168</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B43" t="s">
         <v>217</v>
       </c>
       <c r="C43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D43" t="s">
         <v>1171</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>1172</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>1173</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B44" t="s">
         <v>184</v>
@@ -9089,38 +9124,38 @@
         <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E44" t="s">
         <v>924</v>
       </c>
       <c r="F44" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B45" t="s">
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D45" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E45" t="s">
         <v>1178</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>1179</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
@@ -9129,53 +9164,53 @@
         <v>801</v>
       </c>
       <c r="D46" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E46" t="s">
         <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B47" t="s">
         <v>146</v>
       </c>
       <c r="C47" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D47" t="s">
         <v>1185</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>1186</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>1187</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B48" t="s">
         <v>146</v>
       </c>
       <c r="C48" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D48" t="s">
         <v>1190</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>1191</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>1192</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1193</v>
       </c>
       <c r="G48" s="48">
         <v>649743</v>
@@ -9183,7 +9218,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B49" t="s">
         <v>184</v>
@@ -9192,38 +9227,38 @@
         <v>745</v>
       </c>
       <c r="D49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E49" t="s">
         <v>1195</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>1196</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B50" t="s">
         <v>184</v>
       </c>
       <c r="C50" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D50" t="s">
         <v>1199</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>1200</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>1201</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B51" t="s">
         <v>184</v>
@@ -9232,58 +9267,58 @@
         <v>913</v>
       </c>
       <c r="D51" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E51" t="s">
         <v>915</v>
       </c>
       <c r="F51" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B52" t="s">
         <v>146</v>
       </c>
       <c r="C52" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D52" t="s">
         <v>1207</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>1208</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>1209</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B53" t="s">
         <v>217</v>
       </c>
       <c r="C53" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D53" t="s">
         <v>1212</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>1213</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>1214</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B54" t="s">
         <v>184</v>
@@ -9292,7 +9327,7 @@
         <v>408</v>
       </c>
       <c r="D54" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E54" t="s">
         <v>490</v>
@@ -9301,12 +9336,12 @@
         <v>274</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B55" t="s">
         <v>184</v>
@@ -9315,38 +9350,38 @@
         <v>495</v>
       </c>
       <c r="D55" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E55" t="s">
         <v>1220</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>1221</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B56" t="s">
         <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D56" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E56" t="s">
         <v>1224</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>1225</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B57" t="s">
         <v>184</v>
@@ -9355,18 +9390,18 @@
         <v>390</v>
       </c>
       <c r="D57" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E57" t="s">
         <v>1228</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>1229</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B58" t="s">
         <v>217</v>
@@ -9375,21 +9410,21 @@
         <v>22</v>
       </c>
       <c r="D58" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E58" t="s">
         <v>1232</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>1233</v>
       </c>
-      <c r="F58" t="s">
-        <v>1234</v>
-      </c>
       <c r="G58" s="49" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B59" t="s">
         <v>146</v>
@@ -9398,18 +9433,18 @@
         <v>881</v>
       </c>
       <c r="D59" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E59" t="s">
         <v>1236</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>1237</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B60" t="s">
         <v>184</v>
@@ -9418,53 +9453,53 @@
         <v>668</v>
       </c>
       <c r="D60" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E60" t="s">
         <v>1240</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>1241</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B61" t="s">
         <v>146</v>
       </c>
       <c r="C61" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D61" t="s">
         <v>1244</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>1245</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>1246</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B62" t="s">
         <v>146</v>
       </c>
       <c r="C62" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D62" t="s">
         <v>1249</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>1250</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>1251</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -9473,7 +9508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9843,19 +9878,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>1391</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>1392</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
@@ -9869,7 +9904,7 @@
         <v>115</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>46</v>
@@ -9894,7 +9929,7 @@
         <v>116</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>46</v>
@@ -9919,7 +9954,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>46</v>
@@ -10024,10 +10059,10 @@
         <v>228</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -10893,22 +10928,22 @@
         <v>14</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -10918,19 +10953,19 @@
         <v>14</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="12"/>
@@ -10941,19 +10976,19 @@
         <v>14</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="12"/>
@@ -10964,19 +10999,19 @@
         <v>14</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E62" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>1000</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>1001</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="12"/>
@@ -10987,7 +11022,7 @@
         <v>14</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>207</v>
@@ -10996,10 +11031,10 @@
         <v>390</v>
       </c>
       <c r="E63" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>1256</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>1257</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="12"/>
@@ -11010,19 +11045,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D64" s="12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="F64" s="13" t="s">
         <v>1309</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>1310</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="12"/>
@@ -11033,22 +11068,22 @@
         <v>14</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E65" s="55" t="s">
         <v>1404</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="F65" s="55" t="s">
         <v>1405</v>
       </c>
-      <c r="F65" s="55" t="s">
+      <c r="G65" s="5" t="s">
         <v>1406</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>1407</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -11058,19 +11093,19 @@
         <v>14</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D66" s="54" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E66" s="57" t="s">
         <v>1416</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="F66" s="57" t="s">
         <v>1417</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>1418</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="12"/>
@@ -11081,19 +11116,19 @@
         <v>14</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F67" s="58" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G67" s="23"/>
       <c r="H67" s="12"/>
@@ -11104,19 +11139,19 @@
         <v>14</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D68" s="12" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E68" s="56" t="s">
         <v>1436</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="F68" s="56" t="s">
         <v>1437</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>1438</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="12"/>
@@ -11124,7 +11159,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A68" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11134,7 +11169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -11351,22 +11386,22 @@
         <v>62</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>1290</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>1291</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>1292</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>1293</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>626</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="12"/>
@@ -11467,10 +11502,10 @@
         <v>180</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="12"/>
@@ -11628,7 +11663,7 @@
         <v>285</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="12"/>
@@ -11853,22 +11888,22 @@
         <v>14</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>971</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>972</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="G27" s="22" t="s">
         <v>973</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>974</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="12"/>
@@ -11879,25 +11914,25 @@
         <v>62</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>1266</v>
-      </c>
       <c r="H28" s="22" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="18"/>
@@ -11907,22 +11942,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>1348</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>1349</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="G29" s="22" t="s">
         <v>1350</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>1351</v>
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="12"/>
@@ -11930,7 +11965,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11940,7 +11975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J85"/>
   <sheetViews>
@@ -12002,7 +12037,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>232</v>
@@ -12011,14 +12046,14 @@
         <v>4</v>
       </c>
       <c r="E2" s="46" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>1484</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>1485</v>
       </c>
       <c r="G2" s="47"/>
       <c r="H2" s="47" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -12043,10 +12078,10 @@
         <v>841</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -12071,10 +12106,10 @@
         <v>841</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -12099,10 +12134,10 @@
         <v>841</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -12127,10 +12162,10 @@
         <v>841</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -12155,10 +12190,10 @@
         <v>841</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -12183,10 +12218,10 @@
         <v>841</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -12196,7 +12231,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>232</v>
@@ -12205,10 +12240,10 @@
         <v>340</v>
       </c>
       <c r="E9" s="46" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>1381</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>1382</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="47" t="s">
@@ -12222,7 +12257,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>232</v>
@@ -12231,10 +12266,10 @@
         <v>481</v>
       </c>
       <c r="E10" s="46" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>1381</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>1382</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60" t="s">
@@ -12248,7 +12283,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>232</v>
@@ -12257,10 +12292,10 @@
         <v>850</v>
       </c>
       <c r="E11" s="46" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>1381</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>1382</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60" t="s">
@@ -12274,19 +12309,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E12" s="46" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>1381</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>1382</v>
       </c>
       <c r="G12" s="60"/>
       <c r="H12" s="60" t="s">
@@ -12316,7 +12351,7 @@
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="47" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -12426,7 +12461,7 @@
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="47" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -12445,14 +12480,14 @@
         <v>46</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F18" s="46" t="s">
         <v>834</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="47" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -12478,7 +12513,7 @@
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="47" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -12488,23 +12523,23 @@
         <v>14</v>
       </c>
       <c r="B20" s="46" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>1295</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>1296</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="46" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F20" s="46" t="s">
         <v>1297</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>1298</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="47" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -12530,7 +12565,7 @@
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="47" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -12549,14 +12584,14 @@
         <v>785</v>
       </c>
       <c r="E22" s="46" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>1480</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>1481</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -12607,10 +12642,10 @@
         <v>791</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -12664,7 +12699,7 @@
         <v>797</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -12692,7 +12727,7 @@
         <v>797</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -12720,7 +12755,7 @@
         <v>797</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -12746,7 +12781,7 @@
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -12772,7 +12807,7 @@
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -12824,7 +12859,7 @@
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="47" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -12866,7 +12901,7 @@
         <v>232</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E34" s="46" t="s">
         <v>755</v>
@@ -12875,10 +12910,10 @@
         <v>144</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H34" s="47" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -12904,7 +12939,7 @@
       </c>
       <c r="G35" s="47"/>
       <c r="H35" s="47" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -13138,7 +13173,7 @@
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="47" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -13190,7 +13225,7 @@
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -13268,7 +13303,7 @@
       </c>
       <c r="G49" s="47"/>
       <c r="H49" s="47" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -13424,7 +13459,7 @@
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="47" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -13475,7 +13510,7 @@
         <v>841</v>
       </c>
       <c r="G57" s="47" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H57" s="47" t="s">
         <v>274</v>
@@ -13503,7 +13538,7 @@
         <v>841</v>
       </c>
       <c r="G58" s="47" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H58" s="47" t="s">
         <v>274</v>
@@ -13531,7 +13566,7 @@
         <v>841</v>
       </c>
       <c r="G59" s="47" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H59" s="47" t="s">
         <v>274</v>
@@ -13544,13 +13579,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C60" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>840</v>
@@ -13559,7 +13594,7 @@
         <v>841</v>
       </c>
       <c r="G60" s="47" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H60" s="47" t="s">
         <v>274</v>
@@ -13718,7 +13753,7 @@
       </c>
       <c r="G66" s="47"/>
       <c r="H66" s="47" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -13728,19 +13763,19 @@
         <v>14</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C67" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D67" s="46" t="s">
+        <v>975</v>
+      </c>
+      <c r="E67" s="46" t="s">
         <v>976</v>
       </c>
-      <c r="E67" s="46" t="s">
-        <v>977</v>
-      </c>
       <c r="F67" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G67" s="47"/>
       <c r="H67" s="47" t="s">
@@ -13754,23 +13789,23 @@
         <v>14</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C68" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D68" s="46" t="s">
+        <v>983</v>
+      </c>
+      <c r="E68" s="46" t="s">
         <v>984</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="F68" s="46" t="s">
         <v>985</v>
-      </c>
-      <c r="F68" s="46" t="s">
-        <v>986</v>
       </c>
       <c r="G68" s="47"/>
       <c r="H68" s="47" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -13780,23 +13815,23 @@
         <v>62</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D69" s="46" t="s">
+        <v>991</v>
+      </c>
+      <c r="E69" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="F69" s="46" t="s">
         <v>993</v>
-      </c>
-      <c r="F69" s="46" t="s">
-        <v>994</v>
       </c>
       <c r="G69" s="47"/>
       <c r="H69" s="47" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
@@ -13806,23 +13841,23 @@
         <v>14</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C70" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D70" s="46" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E70" s="46" t="s">
         <v>1003</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="F70" s="46" t="s">
         <v>1004</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>1005</v>
       </c>
       <c r="G70" s="47"/>
       <c r="H70" s="47" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
@@ -13832,23 +13867,23 @@
         <v>14</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C71" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E71" s="46" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F71" s="46" t="s">
         <v>1320</v>
-      </c>
-      <c r="F71" s="46" t="s">
-        <v>1321</v>
       </c>
       <c r="G71" s="47"/>
       <c r="H71" s="47" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
@@ -13858,23 +13893,23 @@
         <v>14</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C72" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E72" s="46" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F72" s="46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G72" s="47"/>
       <c r="H72" s="47" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -13884,23 +13919,23 @@
         <v>14</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C73" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D73" s="46" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E73" s="46" t="s">
         <v>1334</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="F73" s="46" t="s">
         <v>1335</v>
-      </c>
-      <c r="F73" s="46" t="s">
-        <v>1336</v>
       </c>
       <c r="G73" s="47"/>
       <c r="H73" s="47" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -13910,25 +13945,25 @@
         <v>14</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C74" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D74" s="46" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E74" s="46" t="s">
         <v>1339</v>
       </c>
-      <c r="E74" s="46" t="s">
-        <v>1340</v>
-      </c>
       <c r="F74" s="46" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G74" s="47" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H74" s="47" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -13938,23 +13973,23 @@
         <v>14</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C75" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E75" s="46" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>1353</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>1354</v>
       </c>
       <c r="G75" s="47"/>
       <c r="H75" s="47" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
@@ -13964,23 +13999,23 @@
         <v>14</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C76" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D76" s="46" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E76" s="46" t="s">
         <v>1359</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="F76" s="46" t="s">
         <v>1360</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>1361</v>
       </c>
       <c r="G76" s="47"/>
       <c r="H76" s="47" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
@@ -13990,19 +14025,19 @@
         <v>14</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C77" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D77" s="46" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E77" s="46" t="s">
         <v>1364</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="F77" s="46" t="s">
         <v>1365</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>1366</v>
       </c>
       <c r="G77" s="47"/>
       <c r="H77" s="47" t="s">
@@ -14016,7 +14051,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C78" s="46" t="s">
         <v>232</v>
@@ -14025,10 +14060,10 @@
         <v>12</v>
       </c>
       <c r="E78" s="46" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G78" s="47"/>
       <c r="H78" s="47" t="s">
@@ -14042,23 +14077,23 @@
         <v>14</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C79" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D79" s="46" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E79" s="46" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F79" s="46" t="s">
         <v>1388</v>
-      </c>
-      <c r="F79" s="46" t="s">
-        <v>1389</v>
       </c>
       <c r="G79" s="47"/>
       <c r="H79" s="47" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -14068,23 +14103,23 @@
         <v>14</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C80" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D80" s="46" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E80" s="46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F80" s="46" t="s">
         <v>1409</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>1410</v>
       </c>
       <c r="G80" s="47"/>
       <c r="H80" s="47" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -14094,23 +14129,23 @@
         <v>14</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C81" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D81" s="46" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E81" s="46" t="s">
         <v>1426</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="F81" s="46" t="s">
         <v>1427</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>1428</v>
       </c>
       <c r="G81" s="47"/>
       <c r="H81" s="47" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -14120,23 +14155,23 @@
         <v>14</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C82" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D82" s="46" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E82" s="46" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F82" s="46" t="s">
         <v>1444</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>1445</v>
       </c>
       <c r="G82" s="47"/>
       <c r="H82" s="47" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
@@ -14146,7 +14181,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C83" s="46" t="s">
         <v>232</v>
@@ -14155,13 +14190,13 @@
         <v>427</v>
       </c>
       <c r="E83" s="46" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F83" s="46" t="s">
         <v>428</v>
       </c>
       <c r="G83" s="47" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H83" s="47" t="s">
         <v>375</v>
@@ -14174,25 +14209,25 @@
         <v>14</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C84" s="46" t="s">
         <v>232</v>
       </c>
       <c r="D84" s="46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E84" s="46" t="s">
         <v>1464</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="F84" s="46" t="s">
         <v>1465</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="G84" s="47" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H84" s="47" t="s">
         <v>1466</v>
-      </c>
-      <c r="G84" s="47" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H84" s="47" t="s">
-        <v>1467</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -14202,7 +14237,7 @@
         <v>14</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C85" s="46" t="s">
         <v>232</v>
@@ -14214,18 +14249,18 @@
         <v>476</v>
       </c>
       <c r="F85" s="46" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G85" s="47"/>
       <c r="H85" s="47" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A85 A2:A84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A85 A2:A84" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14235,7 +14270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -14792,22 +14827,22 @@
         <v>62</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>144</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="12"/>
@@ -14815,7 +14850,7 @@
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A21" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14825,7 +14860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -14993,16 +15028,16 @@
         <v>257</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E6" s="29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>1412</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>1413</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>1414</v>
       </c>
       <c r="J6" s="44"/>
     </row>
@@ -15116,7 +15151,7 @@
         <v>740</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>943</v>
@@ -15131,7 +15166,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>257</v>
@@ -15140,13 +15175,13 @@
         <v>124</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="J12" s="44"/>
     </row>
@@ -15155,7 +15190,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>257</v>
@@ -15164,13 +15199,13 @@
         <v>119</v>
       </c>
       <c r="E13" s="29" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>1315</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>1316</v>
-      </c>
       <c r="G13" s="29" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="J13" s="44"/>
     </row>
@@ -15179,7 +15214,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>257</v>
@@ -15188,13 +15223,13 @@
         <v>206</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="J14" s="44"/>
     </row>
@@ -15203,22 +15238,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>975</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>978</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>976</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>979</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="G15" s="29" t="s">
         <v>977</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>978</v>
       </c>
       <c r="J15" s="44"/>
     </row>
@@ -15227,19 +15262,19 @@
         <v>62</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>243</v>
@@ -15251,22 +15286,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D17" s="28" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>1259</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>1260</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>1261</v>
-      </c>
       <c r="G17" s="29" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J17" s="44"/>
     </row>
@@ -15275,22 +15310,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E18" s="29" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>1270</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>1271</v>
-      </c>
       <c r="G18" s="29" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="J18" s="44"/>
     </row>
@@ -15299,22 +15334,22 @@
         <v>14</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E19" s="29" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>1273</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>1274</v>
-      </c>
       <c r="G19" s="29" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J19" s="44"/>
     </row>
@@ -15323,22 +15358,22 @@
         <v>14</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>1276</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>1277</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>927</v>
       </c>
       <c r="E20" s="29" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>1282</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>1283</v>
-      </c>
       <c r="G20" s="29" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J20" s="44"/>
     </row>
@@ -15347,22 +15382,22 @@
         <v>14</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>1280</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>1281</v>
-      </c>
       <c r="G21" s="29" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="J21" s="44"/>
     </row>
@@ -15371,19 +15406,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>1384</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="F22" s="29" t="s">
         <v>1385</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>1386</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>243</v>
@@ -15395,7 +15430,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>257</v>
@@ -15404,10 +15439,10 @@
         <v>288</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>243</v>
@@ -15419,7 +15454,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>257</v>
@@ -15431,10 +15466,10 @@
         <v>234</v>
       </c>
       <c r="F24" s="29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>1397</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>1398</v>
       </c>
       <c r="J24" s="44"/>
     </row>
@@ -15443,16 +15478,16 @@
         <v>62</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F25" s="29">
         <v>5855</v>
@@ -15465,19 +15500,19 @@
         <v>14</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>1440</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>1441</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>243</v>
@@ -15489,7 +15524,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>257</v>
@@ -15501,10 +15536,10 @@
         <v>55230600</v>
       </c>
       <c r="F27" s="29" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>1451</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>1452</v>
       </c>
       <c r="J27" s="44"/>
     </row>
@@ -15513,22 +15548,22 @@
         <v>14</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F28" s="29">
         <v>55022161</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J28" s="44"/>
     </row>
@@ -15537,19 +15572,19 @@
         <v>14</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>375</v>
@@ -15561,19 +15596,19 @@
         <v>14</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>1474</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>1475</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>243</v>
@@ -15582,7 +15617,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15592,7 +15627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -15712,7 +15747,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15722,7 +15757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J109"/>
   <sheetViews>
@@ -18800,7 +18835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:A12"/>
   <sheetViews>

--- a/src/test/java/com/Resources/ExportEngineInput.xlsx
+++ b/src/test/java/com/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\CheneyOG\DailyOGCheneyExport\src\test\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBFDFA-E567-43B6-8A3D-7B483ECABEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE138AA8-ABE7-4863-BE57-118A9DAF905C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1512">
   <si>
     <t>Active</t>
   </si>
@@ -4556,6 +4556,24 @@
   </si>
   <si>
     <t>Henry5782</t>
+  </si>
+  <si>
+    <t>60016309CBI</t>
+  </si>
+  <si>
+    <t>Flash6309</t>
+  </si>
+  <si>
+    <t>60016320CBI</t>
+  </si>
+  <si>
+    <t>Flash6320</t>
+  </si>
+  <si>
+    <t>Flashback Diner Davie_Cheney</t>
+  </si>
+  <si>
+    <t>Flashback Diner Hallandale_Cheney</t>
   </si>
 </sst>
 </file>
@@ -4659,7 +4677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4889,6 +4907,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4896,7 +4927,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5043,11 +5074,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5392,16 +5428,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
@@ -6189,10 +6225,10 @@
       <c r="D34" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="53" t="s">
         <v>902</v>
       </c>
       <c r="G34" s="3"/>
@@ -6545,27 +6581,73 @@
       <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="51" t="s">
+      <c r="A50" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="54" t="s">
         <v>1503</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="54" t="s">
         <v>1409</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="55" t="s">
         <v>1504</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F50" s="55" t="s">
         <v>1505</v>
       </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/src/test/java/com/Resources/ExportEngineInput.xlsx
+++ b/src/test/java/com/Resources/ExportEngineInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jyoti Singh\Desktop\OrderGuide\CheneyOG\DailyOGCheneyExport\src\test\java\com\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE138AA8-ABE7-4863-BE57-118A9DAF905C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D3AEE0-D893-4458-A519-5FC0A6CD5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="1515">
   <si>
     <t>Active</t>
   </si>
@@ -4574,6 +4574,15 @@
   </si>
   <si>
     <t>Flashback Diner Hallandale_Cheney</t>
+  </si>
+  <si>
+    <t>FlashbackBoca_Cheney</t>
+  </si>
+  <si>
+    <t>60016308CBI</t>
+  </si>
+  <si>
+    <t>CBI6308!</t>
   </si>
 </sst>
 </file>
@@ -4677,7 +4686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4920,6 +4929,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4927,7 +4949,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5082,10 +5104,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5428,10 +5456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6604,50 +6632,70 @@
       <c r="I50" s="54"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="57" t="s">
+      <c r="A51" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="56" t="s">
         <v>1510</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="56" t="s">
         <v>1409</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="56" t="s">
         <v>1506</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="56" t="s">
         <v>1507</v>
       </c>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="57" t="s">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="58" t="s">
         <v>1511</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="56" t="s">
         <v>1409</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="56" t="s">
         <v>1508</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="56" t="s">
         <v>1509</v>
       </c>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>1514</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
